--- a/downloads/Detalle Pedidos.xlsx
+++ b/downloads/Detalle Pedidos.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,74 +445,9 @@
         <v>Local destino</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>SVBFE00006307258</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Yucan-fulfillment service for Temu</v>
-      </c>
-      <c r="C2" t="str">
-        <v>brush,keychain,Game toys,digital watch,Gift bags,shorts,Educational toys,necklace,Phone Case,plastic travel bottle,Mechanical watches,household woundplast,agitator,Board games,Ruler set,Hair tie,Tape measure,Mobile phone protective case,Cell phone cover,h</v>
-      </c>
-      <c r="D2" t="str">
-        <v xml:space="preserve">LAMBAYEQUE </v>
-      </c>
-      <c r="E2" t="str">
-        <v xml:space="preserve"> LAMBAYEQUE </v>
-      </c>
-      <c r="F2" t="str">
-        <v xml:space="preserve"> LAMBAYEQUE</v>
-      </c>
-      <c r="G2" t="str">
-        <v>En almacén</v>
-      </c>
-      <c r="H2" t="str">
-        <v>10/09/2025 1:46:00</v>
-      </c>
-      <c r="I2" t="str">
-        <v/>
-      </c>
-      <c r="J2" t="str">
-        <v>Lizeth Tantalean</v>
-      </c>
-      <c r="K2" t="str">
-        <v>Avenida Augusto Bernandino Leguia,Edificio 10 departamento 204 lambayeque , lambayeque</v>
-      </c>
-      <c r="L2" t="str">
-        <v>SIN DRIVER</v>
-      </c>
-      <c r="M2" t="str">
-        <v>1.340</v>
-      </c>
-      <c r="N2" t="str">
-        <v>922868622</v>
-      </c>
-      <c r="O2" t="str">
-        <v>0.000</v>
-      </c>
-      <c r="P2" t="str">
-        <v>SIN TALLA</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>26/09/2025 10:49:06</v>
-      </c>
-      <c r="R2" t="str">
-        <v>27/09/2025 7:41:43</v>
-      </c>
-      <c r="S2" t="str">
-        <v>MN00209507</v>
-      </c>
-      <c r="T2" t="str">
-        <v>ALMACÉN CHICLAYO - HERMES</v>
-      </c>
-      <c r="U2" t="str">
-        <v>ALMACÉN CHICLAYO - HERMES</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:U2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:U1"/>
   </ignoredErrors>
 </worksheet>
 </file>